--- a/savedFiles/订单详情.xlsx
+++ b/savedFiles/订单详情.xlsx
@@ -181,7 +181,7 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>

--- a/savedFiles/订单详情.xlsx
+++ b/savedFiles/订单详情.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
-    <t>7-11便利店***2018-04-28至2018-05-28</t>
+    <t>7-11便利店         2018-04-28至2018-05-28</t>
   </si>
   <si>
     <t>序号</t>
